--- a/biology/Zoologie/Cybaeus_kumadori/Cybaeus_kumadori.xlsx
+++ b/biology/Zoologie/Cybaeus_kumadori/Cybaeus_kumadori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cybaeus kumadori est une espèce d'araignées aranéomorphes de la famille des Cybaeidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cybaeus kumadori est une espèce d'araignées aranéomorphes de la famille des Cybaeidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'archipel Nansei au Japon[1]. Elle se rencontre sur Kuro-shima[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'archipel Nansei au Japon. Elle se rencontre sur Kuro-shima.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 3,32 mm de long sur 2,27 mm et l'abdomen 2,94 mm de long sur 2,00 mm et la carapace de la femelle paratype mesure 3,50 mm de long sur 2,35 mm et l'abdomen 4,55 mm de long sur 3,38 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 3,32 mm de long sur 2,27 mm et l'abdomen 2,94 mm de long sur 2,00 mm et la carapace de la femelle paratype mesure 3,50 mm de long sur 2,35 mm et l'abdomen 4,55 mm de long sur 3,38 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ihara, Koike &amp; Nakano, 2021 : « Integrative taxonomy reveals multiple lineages of the spider genus Cybaeus endemic to the Ryukyu Islands, Japan (Arachnida: Araneae: Cybaeidae). » Invertebrate Systematics, vol. 35, no 2, p. 216-254.</t>
         </is>
